--- a/데이터셋/2018_11_26_7차(교수님+강의질문).xlsx
+++ b/데이터셋/2018_11_26_7차(교수님+강의질문).xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NA\git\Project\Dataset\데이터셋\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCA2F78-9CA1-417B-9CA6-C883A4C2CC14}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="156" windowWidth="22056" windowHeight="8532"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="22050" windowHeight="8535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,15 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
-  <si>
-    <t>label</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>question</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>[[교수님_성함]] 교수님의 [[강의명]] 어때요?</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -240,7 +238,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -294,6 +292,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -341,7 +342,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -374,9 +375,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -409,6 +427,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -584,584 +619,366 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="72.296875" customWidth="1"/>
+    <col min="1" max="1" width="72.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>29</v>
       </c>
-      <c r="B29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>30</v>
       </c>
-      <c r="B30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>31</v>
       </c>
-      <c r="B31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>32</v>
       </c>
-      <c r="B32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>33</v>
       </c>
-      <c r="B33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>34</v>
       </c>
-      <c r="B34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>35</v>
       </c>
-      <c r="B35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>36</v>
       </c>
-      <c r="B36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>37</v>
       </c>
-      <c r="B37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>38</v>
       </c>
-      <c r="B38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>39</v>
       </c>
-      <c r="B39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>40</v>
       </c>
-      <c r="B40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>41</v>
       </c>
-      <c r="B41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>42</v>
       </c>
-      <c r="B42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A43" t="s">
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>43</v>
       </c>
-      <c r="B43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>44</v>
       </c>
-      <c r="B44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>45</v>
       </c>
-      <c r="B45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A46" t="s">
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>46</v>
       </c>
-      <c r="B46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A47" t="s">
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>47</v>
       </c>
-      <c r="B47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>48</v>
       </c>
-      <c r="B48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A49" t="s">
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>49</v>
       </c>
-      <c r="B49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A50" t="s">
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>50</v>
       </c>
-      <c r="B50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A51" t="s">
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>51</v>
       </c>
-      <c r="B51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A52" t="s">
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>52</v>
       </c>
-      <c r="B52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A53" t="s">
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>53</v>
       </c>
-      <c r="B53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A54" t="s">
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>54</v>
       </c>
-      <c r="B54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A55" t="s">
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>55</v>
       </c>
-      <c r="B55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A56" t="s">
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>56</v>
       </c>
-      <c r="B56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A57" t="s">
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>57</v>
       </c>
-      <c r="B57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A58" t="s">
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>58</v>
       </c>
-      <c r="B58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A59" t="s">
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>59</v>
       </c>
-      <c r="B59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A60" t="s">
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>60</v>
       </c>
-      <c r="B60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A61" t="s">
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>61</v>
       </c>
-      <c r="B61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A62" t="s">
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>62</v>
       </c>
-      <c r="B62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A63" t="s">
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>63</v>
       </c>
-      <c r="B63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A64" t="s">
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>64</v>
       </c>
-      <c r="B64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A65" t="s">
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>65</v>
       </c>
-      <c r="B65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A66" t="s">
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>66</v>
       </c>
-      <c r="B66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A67" t="s">
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>67</v>
       </c>
-      <c r="B67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A68" t="s">
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>68</v>
       </c>
-      <c r="B68">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A69" t="s">
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>69</v>
-      </c>
-      <c r="B69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A70" t="s">
-        <v>70</v>
-      </c>
-      <c r="B70">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A71" t="s">
-        <v>71</v>
-      </c>
-      <c r="B71">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1171,12 +988,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1184,12 +1001,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
